--- a/Lab-Machines.xlsx
+++ b/Lab-Machines.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr dataExtractLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>User No</t>
   </si>
@@ -32,9 +31,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>User 1</t>
-  </si>
-  <si>
     <t>100.20.125.49</t>
   </si>
   <si>
@@ -50,81 +46,54 @@
     <t>root</t>
   </si>
   <si>
-    <t>User 2</t>
-  </si>
-  <si>
     <t>100.21.33.203</t>
   </si>
   <si>
     <t>52.10.186.150</t>
   </si>
   <si>
-    <t>User 3</t>
-  </si>
-  <si>
     <t>34.210.219.91</t>
   </si>
   <si>
     <t>52.10.221.34</t>
   </si>
   <si>
-    <t>User 4</t>
-  </si>
-  <si>
     <t>35.161.122.197</t>
   </si>
   <si>
     <t>52.10.75.227</t>
   </si>
   <si>
-    <t>User 5</t>
-  </si>
-  <si>
     <t>35.161.220.106</t>
   </si>
   <si>
     <t>52.12.196.14</t>
   </si>
   <si>
-    <t>User 6</t>
-  </si>
-  <si>
     <t>35.163.133.34</t>
   </si>
   <si>
     <t>52.24.55.250</t>
   </si>
   <si>
-    <t>User 7</t>
-  </si>
-  <si>
     <t>35.166.52.30</t>
   </si>
   <si>
     <t>52.25.242.140</t>
   </si>
   <si>
-    <t>User 8</t>
-  </si>
-  <si>
     <t>35.83.10.74</t>
   </si>
   <si>
     <t>52.38.189.131</t>
   </si>
   <si>
-    <t>User 9</t>
-  </si>
-  <si>
     <t>44.225.82.171</t>
   </si>
   <si>
     <t>52.41.99.47</t>
   </si>
   <si>
-    <t>User 10</t>
-  </si>
-  <si>
     <t>44.234.136.63</t>
   </si>
   <si>
@@ -137,7 +106,43 @@
     <t>54.71.100.94</t>
   </si>
   <si>
-    <t>Trainer</t>
+    <t>Bharath P</t>
+  </si>
+  <si>
+    <t>Subrat Kumar Das</t>
+  </si>
+  <si>
+    <t>Radhika T</t>
+  </si>
+  <si>
+    <t>Rajeshwari A</t>
+  </si>
+  <si>
+    <t>Subburaj A</t>
+  </si>
+  <si>
+    <t>Rohit Vignesh</t>
+  </si>
+  <si>
+    <t>Balamurugan G</t>
+  </si>
+  <si>
+    <t>Srinivas K</t>
+  </si>
+  <si>
+    <t>Ashish Gupta</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Saravanan Rajamanickam</t>
+  </si>
+  <si>
+    <t>Abdul Razack</t>
+  </si>
+  <si>
+    <t>Vijay</t>
   </si>
 </sst>
 </file>
@@ -174,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,19 +187,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,19 +520,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -537,232 +562,232 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -770,23 +795,45 @@
         <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab-Machines.xlsx
+++ b/Lab-Machines.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="17895" windowHeight="9915"/>
+    <workbookView xWindow="15" yWindow="-15" windowWidth="9750" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
-  <si>
-    <t>User No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="74">
   <si>
     <t>Machine 1</t>
   </si>
@@ -112,9 +109,6 @@
     <t>Subrat Kumar Das</t>
   </si>
   <si>
-    <t>Radhika T</t>
-  </si>
-  <si>
     <t>Rajeshwari A</t>
   </si>
   <si>
@@ -143,13 +137,112 @@
   </si>
   <si>
     <t>Vijay</t>
+  </si>
+  <si>
+    <t>100.20.16.217</t>
+  </si>
+  <si>
+    <t>44.238.120.245</t>
+  </si>
+  <si>
+    <t>100.20.253.137</t>
+  </si>
+  <si>
+    <t>52.10.200.145</t>
+  </si>
+  <si>
+    <t>100.20.32.27</t>
+  </si>
+  <si>
+    <t>52.13.107.73</t>
+  </si>
+  <si>
+    <t>18.236.36.22</t>
+  </si>
+  <si>
+    <t>52.24.247.190</t>
+  </si>
+  <si>
+    <t>34.215.138.191</t>
+  </si>
+  <si>
+    <t>52.26.162.154</t>
+  </si>
+  <si>
+    <t>34.218.158.203</t>
+  </si>
+  <si>
+    <t>52.27.247.198</t>
+  </si>
+  <si>
+    <t>35.160.14.68</t>
+  </si>
+  <si>
+    <t>52.41.208.136</t>
+  </si>
+  <si>
+    <t>35.84.78.207</t>
+  </si>
+  <si>
+    <t>52.89.18.50</t>
+  </si>
+  <si>
+    <t>44.224.43.44</t>
+  </si>
+  <si>
+    <t>54.149.8.223</t>
+  </si>
+  <si>
+    <t>44.237.159.135</t>
+  </si>
+  <si>
+    <t>54.184.93.8</t>
+  </si>
+  <si>
+    <t>44.237.254.101</t>
+  </si>
+  <si>
+    <t>54.190.71.254</t>
+  </si>
+  <si>
+    <t>Antoni Dos, Vijayabaskar v</t>
+  </si>
+  <si>
+    <t>Chindhuja V</t>
+  </si>
+  <si>
+    <t>Diviya Balakrishnan</t>
+  </si>
+  <si>
+    <t>Prem kumar Selvan</t>
+  </si>
+  <si>
+    <t>Puli Kavitha</t>
+  </si>
+  <si>
+    <t>Rajeshwar Sharma</t>
+  </si>
+  <si>
+    <t>Rajeswari Veeramallu</t>
+  </si>
+  <si>
+    <t>Ramesh Palanisamy</t>
+  </si>
+  <si>
+    <t>Sivasubramanian Velladurai</t>
+  </si>
+  <si>
+    <t>Radhika T / Vikas Mohe</t>
+  </si>
+  <si>
+    <t>User Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,21 +255,28 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Liberation Serif"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -206,17 +306,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,15 +629,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -537,303 +646,534 @@
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
